--- a/assets/questions_excel/Minigames.xlsx
+++ b/assets/questions_excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\questions_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F8745-3C30-4530-8117-86AC7ADD360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69A5BF-8EE9-4339-B86A-6A2A5BBD525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="1275" windowWidth="19500" windowHeight="12630" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="15750" yWindow="1050" windowWidth="11505" windowHeight="12630" activeTab="1" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="1176">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4627,7 +4627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
@@ -10953,8 +10953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26312E56-B338-43B4-8651-D7A8BA424BFB}">
   <dimension ref="A1:Y529"/>
   <sheetViews>
-    <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="W472" sqref="W472"/>
+    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14036,6 +14036,9 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>826</v>
+      </c>
+      <c r="F152" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -22346,6 +22349,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -22491,15 +22503,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -22517,6 +22520,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22532,12 +22543,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/questions_excel/Minigames.xlsx
+++ b/assets/questions_excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\questions_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69A5BF-8EE9-4339-B86A-6A2A5BBD525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C85FBE2-942F-4AB1-B984-3F4C2731B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="1050" windowWidth="11505" windowHeight="12630" activeTab="1" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="8910" yWindow="1305" windowWidth="12765" windowHeight="12630" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="1197">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4267,6 +4267,69 @@
   </si>
   <si>
     <t>diskBrakes</t>
+  </si>
+  <si>
+    <t>Pool_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Parameters Overloading</t>
+  </si>
+  <si>
+    <t>Pool_Item</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>goto</t>
+  </si>
+  <si>
+    <t>String()</t>
+  </si>
+  <si>
+    <t>arsg</t>
+  </si>
+  <si>
+    <t>///</t>
+  </si>
+  <si>
+    <t>\*</t>
+  </si>
+  <si>
+    <t>*\</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>/+</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>3x</t>
   </si>
 </sst>
 </file>
@@ -4627,7 +4690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
@@ -10953,7 +11016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26312E56-B338-43B4-8651-D7A8BA424BFB}">
   <dimension ref="A1:Y529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
@@ -22332,12 +22395,2307 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172:C201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>331</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>331</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>331</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>331</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>331</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
